--- a/SchedulingData/dynamic12/pso/scheduling1_6.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling1_6.xlsx
@@ -462,192 +462,192 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>58.6</v>
+        <v>74.88</v>
       </c>
       <c r="E2" t="n">
-        <v>25.84</v>
+        <v>26.152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>75.62</v>
+        <v>48.6</v>
       </c>
       <c r="E3" t="n">
-        <v>26.568</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>61.2</v>
+        <v>60.28</v>
       </c>
       <c r="E4" t="n">
-        <v>26.58</v>
+        <v>26.152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>75.62</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>123.6</v>
+        <v>60.7</v>
       </c>
       <c r="E5" t="n">
-        <v>23.88</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>123.6</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>161.92</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>20.688</v>
+        <v>26.436</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>58.6</v>
+        <v>48.6</v>
       </c>
       <c r="D7" t="n">
-        <v>113.28</v>
+        <v>102.12</v>
       </c>
       <c r="E7" t="n">
-        <v>21.992</v>
+        <v>21.628</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>61.2</v>
+        <v>74.88</v>
       </c>
       <c r="D8" t="n">
-        <v>129.1</v>
+        <v>120.5</v>
       </c>
       <c r="E8" t="n">
-        <v>23.86</v>
+        <v>22.72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>62.74</v>
+        <v>118.56</v>
       </c>
       <c r="E9" t="n">
-        <v>26.876</v>
+        <v>22.964</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>129.1</v>
+        <v>118.56</v>
       </c>
       <c r="D10" t="n">
-        <v>187.64</v>
+        <v>176.66</v>
       </c>
       <c r="E10" t="n">
-        <v>20.116</v>
+        <v>20.244</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>187.64</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>254.74</v>
+        <v>66.14</v>
       </c>
       <c r="E11" t="n">
-        <v>17.036</v>
+        <v>27.036</v>
       </c>
     </row>
     <row r="12">
@@ -656,60 +656,60 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>66.14</v>
       </c>
       <c r="D12" t="n">
-        <v>51.52</v>
+        <v>118.34</v>
       </c>
       <c r="E12" t="n">
-        <v>26.528</v>
+        <v>22.956</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>254.74</v>
+        <v>60.7</v>
       </c>
       <c r="D13" t="n">
-        <v>334.4</v>
+        <v>117.46</v>
       </c>
       <c r="E13" t="n">
-        <v>14.66</v>
+        <v>21.564</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>120.5</v>
       </c>
       <c r="D14" t="n">
-        <v>62.36</v>
+        <v>184.04</v>
       </c>
       <c r="E14" t="n">
-        <v>26.464</v>
+        <v>18.976</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>161.92</v>
+        <v>60.28</v>
       </c>
       <c r="D15" t="n">
-        <v>209.42</v>
+        <v>97.98</v>
       </c>
       <c r="E15" t="n">
-        <v>18.048</v>
+        <v>23.512</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>334.4</v>
+        <v>97.98</v>
       </c>
       <c r="D16" t="n">
-        <v>424.28</v>
+        <v>142.04</v>
       </c>
       <c r="E16" t="n">
-        <v>11.252</v>
+        <v>20.236</v>
       </c>
     </row>
     <row r="17">
@@ -751,55 +751,55 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>113.28</v>
+        <v>117.46</v>
       </c>
       <c r="D17" t="n">
-        <v>182.76</v>
+        <v>172.06</v>
       </c>
       <c r="E17" t="n">
-        <v>18.144</v>
+        <v>18.704</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>62.36</v>
+        <v>118.34</v>
       </c>
       <c r="D18" t="n">
-        <v>109.3</v>
+        <v>179.7</v>
       </c>
       <c r="E18" t="n">
-        <v>22.9</v>
+        <v>19.94</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>182.76</v>
+        <v>179.7</v>
       </c>
       <c r="D19" t="n">
-        <v>229.46</v>
+        <v>228.7</v>
       </c>
       <c r="E19" t="n">
-        <v>14.604</v>
+        <v>17.66</v>
       </c>
     </row>
     <row r="20">
@@ -808,340 +808,340 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>51.52</v>
+        <v>228.7</v>
       </c>
       <c r="D20" t="n">
-        <v>118.18</v>
+        <v>275.96</v>
       </c>
       <c r="E20" t="n">
-        <v>21.992</v>
+        <v>15.064</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>209.42</v>
+        <v>102.12</v>
       </c>
       <c r="D21" t="n">
-        <v>265.78</v>
+        <v>164.26</v>
       </c>
       <c r="E21" t="n">
-        <v>15.032</v>
+        <v>18.504</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>62.74</v>
+        <v>164.26</v>
       </c>
       <c r="D22" t="n">
-        <v>127.34</v>
+        <v>213.86</v>
       </c>
       <c r="E22" t="n">
-        <v>23.516</v>
+        <v>16.144</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>424.28</v>
+        <v>176.66</v>
       </c>
       <c r="D23" t="n">
-        <v>473.78</v>
+        <v>247.04</v>
       </c>
       <c r="E23" t="n">
-        <v>8.932</v>
+        <v>16.836</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>118.18</v>
+        <v>172.06</v>
       </c>
       <c r="D24" t="n">
-        <v>157.98</v>
+        <v>228.86</v>
       </c>
       <c r="E24" t="n">
-        <v>19.632</v>
+        <v>15.164</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>265.78</v>
+        <v>275.96</v>
       </c>
       <c r="D25" t="n">
-        <v>303.04</v>
+        <v>325.26</v>
       </c>
       <c r="E25" t="n">
-        <v>12.436</v>
+        <v>12.744</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>157.98</v>
+        <v>213.86</v>
       </c>
       <c r="D26" t="n">
-        <v>226.82</v>
+        <v>263.92</v>
       </c>
       <c r="E26" t="n">
-        <v>16.848</v>
+        <v>13.768</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>109.3</v>
+        <v>184.04</v>
       </c>
       <c r="D27" t="n">
-        <v>182.72</v>
+        <v>263.74</v>
       </c>
       <c r="E27" t="n">
-        <v>18.688</v>
+        <v>15.616</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>229.46</v>
+        <v>263.92</v>
       </c>
       <c r="D28" t="n">
-        <v>275.3</v>
+        <v>354.96</v>
       </c>
       <c r="E28" t="n">
-        <v>11.64</v>
+        <v>10.744</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>127.34</v>
+        <v>325.26</v>
       </c>
       <c r="D29" t="n">
-        <v>199.84</v>
+        <v>376.78</v>
       </c>
       <c r="E29" t="n">
-        <v>18.896</v>
+        <v>10.192</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>275.3</v>
+        <v>142.04</v>
       </c>
       <c r="D30" t="n">
-        <v>346.84</v>
+        <v>201.94</v>
       </c>
       <c r="E30" t="n">
-        <v>8.616</v>
+        <v>16.876</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>226.82</v>
+        <v>354.96</v>
       </c>
       <c r="D31" t="n">
-        <v>282.02</v>
+        <v>404.96</v>
       </c>
       <c r="E31" t="n">
-        <v>12.948</v>
+        <v>7.864</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>346.84</v>
+        <v>247.04</v>
       </c>
       <c r="D32" t="n">
-        <v>391.74</v>
+        <v>286.66</v>
       </c>
       <c r="E32" t="n">
-        <v>5.756</v>
+        <v>14.004</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>282.02</v>
+        <v>201.94</v>
       </c>
       <c r="D33" t="n">
-        <v>326.08</v>
+        <v>275.78</v>
       </c>
       <c r="E33" t="n">
-        <v>9.672000000000001</v>
+        <v>14.092</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>182.72</v>
+        <v>228.86</v>
       </c>
       <c r="D34" t="n">
-        <v>258.26</v>
+        <v>286.88</v>
       </c>
       <c r="E34" t="n">
-        <v>15.724</v>
+        <v>11.972</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>199.84</v>
+        <v>376.78</v>
       </c>
       <c r="D35" t="n">
-        <v>258.96</v>
+        <v>438.78</v>
       </c>
       <c r="E35" t="n">
-        <v>16.564</v>
+        <v>7.112</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>391.74</v>
+        <v>263.74</v>
       </c>
       <c r="D36" t="n">
-        <v>426.46</v>
+        <v>331.72</v>
       </c>
       <c r="E36" t="n">
-        <v>2.924</v>
+        <v>12.928</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>326.08</v>
+        <v>286.88</v>
       </c>
       <c r="D37" t="n">
-        <v>385.98</v>
+        <v>359.08</v>
       </c>
       <c r="E37" t="n">
-        <v>6.312</v>
+        <v>7.352</v>
       </c>
     </row>
     <row r="38">
@@ -1150,36 +1150,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>258.96</v>
+        <v>275.78</v>
       </c>
       <c r="D38" t="n">
-        <v>311.06</v>
+        <v>342.04</v>
       </c>
       <c r="E38" t="n">
-        <v>12.484</v>
+        <v>10.556</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>258.26</v>
+        <v>359.08</v>
       </c>
       <c r="D39" t="n">
-        <v>299.98</v>
+        <v>409.68</v>
       </c>
       <c r="E39" t="n">
-        <v>13.172</v>
+        <v>3.932</v>
       </c>
     </row>
     <row r="40">
@@ -1188,36 +1188,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>299.98</v>
+        <v>286.66</v>
       </c>
       <c r="D40" t="n">
-        <v>338.98</v>
+        <v>326.28</v>
       </c>
       <c r="E40" t="n">
-        <v>10.892</v>
+        <v>11.672</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>385.98</v>
+        <v>331.72</v>
       </c>
       <c r="D41" t="n">
-        <v>435.88</v>
+        <v>377.66</v>
       </c>
       <c r="E41" t="n">
-        <v>3.432</v>
+        <v>9.964</v>
       </c>
     </row>
   </sheetData>
